--- a/new管道厚度.xlsx
+++ b/new管道厚度.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="pt_rating" sheetId="1" r:id="rId1"/>
+    <s:sheet name="pipe_thickness" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -103,7 +103,7 @@
     <t>P10C7</t>
   </si>
   <si>
-    <t>2016/07/20</t>
+    <t>2016/07/21</t>
   </si>
   <si>
     <t>P10P7</t>
